--- a/Project-Schedule.xlsx
+++ b/Project-Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jordi\Documents\AAU-CPH\AGV-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFCE9C2-D7D5-496B-B6F7-307A1D28E7DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FC2A03-2E77-4905-AFDA-B9344C7CD91D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>ACTIVITY</t>
   </si>
@@ -171,9 +171,6 @@
     <t>Rasmus</t>
   </si>
   <si>
-    <t>Algorithms research</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
@@ -223,6 +220,15 @@
   </si>
   <si>
     <t>Hardware Assembly</t>
+  </si>
+  <si>
+    <t>Control algorithms research</t>
+  </si>
+  <si>
+    <t>Task planning algorithms research</t>
+  </si>
+  <si>
+    <t>Path planning algorithms research</t>
   </si>
 </sst>
 </file>
@@ -744,29 +750,29 @@
     <xf numFmtId="0" fontId="17" fillId="16" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1457,10 +1463,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH25"/>
+  <dimension ref="A1:AH27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1481,15 +1487,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:34" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
@@ -1509,10 +1515,10 @@
         <v>2</v>
       </c>
       <c r="I2" s="8"/>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="43"/>
+      <c r="K2" s="42"/>
       <c r="S2" s="13"/>
       <c r="T2" s="11"/>
       <c r="U2" s="11"/>
@@ -1529,25 +1535,25 @@
       <c r="AH2" s="14"/>
     </row>
     <row r="3" spans="1:34" s="4" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="36" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="27">
@@ -1590,11 +1596,11 @@
     <row r="4" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
       <c r="H4" s="23">
         <v>1</v>
       </c>
@@ -1650,7 +1656,7 @@
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1694,7 +1700,7 @@
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="18">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1715,15 +1721,15 @@
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="17">
         <v>1</v>
@@ -1741,15 +1747,15 @@
     </row>
     <row r="10" spans="1:34" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>21</v>
       </c>
       <c r="C10" s="17">
         <v>2</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="21">
         <v>2</v>
       </c>
       <c r="E10" s="17"/>
@@ -1760,15 +1766,15 @@
     </row>
     <row r="11" spans="1:34" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="17">
         <v>2</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="21">
         <v>2</v>
       </c>
       <c r="E11" s="17"/>
@@ -1778,17 +1784,17 @@
       </c>
     </row>
     <row r="12" spans="1:34" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
-        <v>37</v>
+      <c r="A12" s="31" t="s">
+        <v>38</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -1796,15 +1802,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
-        <v>23</v>
+    <row r="13" spans="1:34" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
+        <v>21</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" s="17">
         <v>2</v>
@@ -1817,16 +1823,16 @@
     </row>
     <row r="14" spans="1:34" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="17">
         <v>4</v>
       </c>
       <c r="D14" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -1834,12 +1840,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="17">
         <v>4</v>
@@ -1855,12 +1861,12 @@
     </row>
     <row r="16" spans="1:34" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="19">
+        <v>20</v>
+      </c>
+      <c r="C16" s="17">
         <v>4</v>
       </c>
       <c r="D16" s="17">
@@ -1874,12 +1880,12 @@
     </row>
     <row r="17" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="19">
+        <v>20</v>
+      </c>
+      <c r="C17" s="17">
         <v>4</v>
       </c>
       <c r="D17" s="17">
@@ -1892,17 +1898,17 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33" t="s">
-        <v>28</v>
+      <c r="A18" s="32" t="s">
+        <v>26</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="17">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="C18" s="19">
+        <v>4</v>
       </c>
       <c r="D18" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
@@ -1911,17 +1917,17 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
-        <v>30</v>
+      <c r="A19" s="32" t="s">
+        <v>28</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="17">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="C19" s="19">
+        <v>4</v>
       </c>
       <c r="D19" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -1931,16 +1937,16 @@
     </row>
     <row r="20" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="17">
         <v>6</v>
       </c>
       <c r="D20" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -1950,10 +1956,10 @@
     </row>
     <row r="21" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="17">
         <v>6</v>
@@ -1969,16 +1975,16 @@
     </row>
     <row r="22" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="17">
         <v>6</v>
       </c>
       <c r="D22" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
@@ -1987,17 +1993,17 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
-        <v>34</v>
+      <c r="A23" s="33" t="s">
+        <v>31</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D23" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
@@ -2006,17 +2012,17 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="34" t="s">
-        <v>35</v>
+      <c r="A24" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="17">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D24" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
@@ -2025,21 +2031,59 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="35" t="s">
-        <v>36</v>
+      <c r="A25" s="34" t="s">
+        <v>33</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="17">
         <v>10</v>
       </c>
       <c r="D25" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="17">
+        <v>11</v>
+      </c>
+      <c r="D26" s="17">
+        <v>2</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="17">
+        <v>10</v>
+      </c>
+      <c r="D27" s="17">
+        <v>3</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18">
         <v>0</v>
       </c>
     </row>
@@ -2055,7 +2099,7 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:R25">
+  <conditionalFormatting sqref="I5:R27">
     <cfRule type="expression" dxfId="28" priority="11">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -2081,7 +2125,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:R26">
+  <conditionalFormatting sqref="A28:R28">
     <cfRule type="expression" dxfId="20" priority="12">
       <formula>TRUE</formula>
     </cfRule>
@@ -2091,7 +2135,7 @@
       <formula>I$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S5:S25">
+  <conditionalFormatting sqref="S5:S27">
     <cfRule type="expression" dxfId="18" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -2117,7 +2161,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S26">
+  <conditionalFormatting sqref="S28">
     <cfRule type="expression" dxfId="10" priority="2">
       <formula>TRUE</formula>
     </cfRule>
@@ -2127,7 +2171,7 @@
       <formula>S$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H25">
+  <conditionalFormatting sqref="H5:H27">
     <cfRule type="expression" dxfId="8" priority="31">
       <formula>PercentComplete</formula>
     </cfRule>

--- a/Project-Schedule.xlsx
+++ b/Project-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jordi\Documents\AAU-CPH\AGV-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FC2A03-2E77-4905-AFDA-B9344C7CD91D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1EB52D-072F-4FDE-8DAD-87A260DDEC18}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1465,8 +1465,8 @@
   </sheetPr>
   <dimension ref="A1:AH27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1476,7 +1476,7 @@
     <col min="3" max="5" width="11.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.5546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.21875" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.21875" style="1" customWidth="1"/>
